--- a/cw/WebRoot/temp/电子书销售详情导入模板.xlsx
+++ b/cw/WebRoot/temp/电子书销售详情导入模板.xlsx
@@ -18,19 +18,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
+    <t>账单日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>账单来源平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账单日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>书号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>书名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>作者</t>
@@ -69,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,21 +86,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -128,11 +115,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,26 +427,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="9.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
     <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -470,22 +462,22 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
